--- a/USA Today Automation TestCases/NFL/TestCases.xlsx
+++ b/USA Today Automation TestCases/NFL/TestCases.xlsx
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
